--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1675711.642209545</v>
+        <v>1779891.276660617</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.0648965483583</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>36.34690181271963</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>150.4026958753531</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>135.9676506761495</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>81.2788737961823</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>329.7760087079214</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>108.6892847025052</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>73.72789960985351</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>201.6086852141634</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>243.2391485592445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>93.3588207914797</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>18.97257313555853</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.4048731212369</v>
+        <v>58.47559664514497</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>145.285756796903</v>
+        <v>186.4479095884334</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>135.3135037226594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.026286001638</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408068</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784714</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>143.3175246302645</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>20.92847288552845</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>33.82891891787487</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>132.3950627812467</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>18.70843787977262</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>159.213275280683</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953139</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216697</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>134.3542165280278</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881248</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>140.1594216201823</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
         <v>934.5673701373257</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.0565485757129</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="E4" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.0565485757129</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,7 +4579,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3133.215280614868</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2802.152393271298</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2449.383738001183</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2075.917979740103</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>610.2639694321828</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C7" t="n">
-        <v>441.3277865042759</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>441.3277865042759</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>441.3277865042759</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>441.3277865042759</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>273.6249498789948</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>846.4143799496456</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>846.4143799496456</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0565485757129</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="Y7" t="n">
-        <v>610.2639694321828</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,16 +4816,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4838,16 +4840,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X8" t="n">
-        <v>3079.909711953368</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.002008902281</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>183.002008902281</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>183.002008902281</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>183.002008902281</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>403.7945880458111</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.002008902281</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192611</v>
@@ -5042,13 +5044,13 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5060,19 +5062,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969299</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,7 +5302,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5367,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5431,7 +5433,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854707</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714565</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872154</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>2971.84874707406</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>2802.912564146153</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>2652.795924733818</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>4435.456226844497</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>4146.381000188695</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>3891.696511982808</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>3602.279341945848</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>3374.28979104783</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>3153.4972119043</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138488</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C22" t="n">
-        <v>916.2946447138488</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487575</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510516</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854714</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648827</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611866</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138488</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138488</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,58 +5977,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>114.9565346495158</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6172,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,22 +6244,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978459</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8772357154528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>127.9872882175424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>127.9872882175424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>127.9872882175424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
         <v>175.9033664000583</v>
@@ -6661,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.5811134804959</v>
+        <v>2823.935653491667</v>
       </c>
       <c r="C34" t="n">
-        <v>615.644930552589</v>
+        <v>2654.99947056376</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402533</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2286.141593397752</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2066.540128420693</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1777.464901764891</v>
+        <v>3998.467906606302</v>
       </c>
       <c r="V34" t="n">
-        <v>1522.780413559004</v>
+        <v>3743.783418400415</v>
       </c>
       <c r="W34" t="n">
-        <v>1233.363243522043</v>
+        <v>3454.366248363454</v>
       </c>
       <c r="X34" t="n">
-        <v>1005.373692624026</v>
+        <v>3226.376697465437</v>
       </c>
       <c r="Y34" t="n">
-        <v>784.5811134804959</v>
+        <v>3005.584118321907</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,16 +7019,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>3227.225672628157</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>3058.28948970025</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>2908.172850287915</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>2760.259756705521</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>2613.369809207611</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192287</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111684</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075776</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014775</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7713,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647149</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368081</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851782</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,31 +7827,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580248</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580248</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235152</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235152</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.03302257935</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373463</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336502</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438485</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949547</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664504</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.30478226780022</v>
+        <v>167.2340587438922</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>72.11969353038523</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>13.30196929555296</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>46.45968844823031</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24260,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>3.116438016304642</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>47.43691740069067</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.81301072096156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>32.89260457059919</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25365,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>32.89260457060004</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>8.45605139803007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882321.2498270525</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>882321.249827052</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
@@ -26341,19 +26343,19 @@
         <v>544823.9547907537</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26430,13 +26432,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687972</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
@@ -26448,16 +26450,16 @@
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26485,7 +26487,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.235734647</v>
+        <v>-976072.2357346469</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929458</v>
+        <v>352672.5099929455</v>
       </c>
       <c r="D6" t="n">
         <v>352672.5099929456</v>
       </c>
       <c r="E6" t="n">
-        <v>102852.3231526116</v>
+        <v>102852.3231526118</v>
       </c>
       <c r="F6" t="n">
-        <v>428264.7849599677</v>
+        <v>428264.7849599678</v>
       </c>
       <c r="G6" t="n">
-        <v>428264.7849599676</v>
+        <v>428264.7849599673</v>
       </c>
       <c r="H6" t="n">
-        <v>428264.7849599674</v>
+        <v>428264.7849599668</v>
       </c>
       <c r="I6" t="n">
         <v>428264.7849599672</v>
       </c>
       <c r="J6" t="n">
-        <v>210733.5825626898</v>
+        <v>210733.5825626896</v>
       </c>
       <c r="K6" t="n">
-        <v>428264.7849599669</v>
+        <v>428264.7849599668</v>
       </c>
       <c r="L6" t="n">
-        <v>428264.7849599675</v>
+        <v>428264.7849599671</v>
       </c>
       <c r="M6" t="n">
-        <v>343209.7570244551</v>
+        <v>343209.7570244553</v>
       </c>
       <c r="N6" t="n">
-        <v>428264.7849599671</v>
+        <v>428264.7849599672</v>
       </c>
       <c r="O6" t="n">
-        <v>428264.7849599671</v>
+        <v>428264.7849599673</v>
       </c>
       <c r="P6" t="n">
-        <v>428264.7849599672</v>
+        <v>428264.7849599668</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512231</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>349.8910368433339</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.84412522327472</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10.4663119704197</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>169.7162981627197</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>19.46496000949162</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.06573021181556</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.20425306019384</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>126.1435732559715</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>126.4919521192246</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>86.4731593904576</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>126.4484748873727</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547051</v>
+        <v>248.7449369209183</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
@@ -31859,7 +31861,7 @@
         <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772175</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288679</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>233.3139244897921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33202,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33901,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33979,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067201</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748309</v>
+        <v>110.1905571410441</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028584537</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453769</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683844</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>94.75954470991793</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236314206</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38195,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998856</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1779891.276660617</v>
+        <v>1775878.666646624</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>157.6708023412502</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.34690181271963</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>135.9676506761495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>186.2925683059789</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>164.0595157960434</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>81.2788737961823</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>73.72789960985351</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>226.1265775300238</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>201.6086852141634</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.3588207914797</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386283</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>14.73874327217528</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>58.47559664514497</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4479095884334</v>
+        <v>178.513465597807</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>179.2499669408068</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>143.3175246302645</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.3950627812467</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400616</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216697</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>96.99837838564352</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2089.358425227295</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1720.395908286883</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1362.130209680133</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>976.3419570818885</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>565.356052292281</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.795585684488</v>
+        <v>2475.958265291417</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.4459618444147</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C4" t="n">
-        <v>518.4459618444147</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D4" t="n">
-        <v>518.4459618444147</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
         <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746544</v>
+        <v>732.7126943980041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1486.072305357836</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1100.284052759592</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>689.2981479699843</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>274.2256978149807</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3133.215280614868</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2802.152393271298</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2449.383738001183</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X5" t="n">
-        <v>2075.917979740103</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064581</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,25 +4661,25 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>846.4143799496456</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>846.4143799496456</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1865.035106955551</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1865.035106955551</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1506.7694083488</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1120.981155750556</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>709.9952509609484</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>294.9228008059449</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218339</v>
@@ -4807,10 +4807,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.960685029207</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W8" t="n">
-        <v>2769.192029759092</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X8" t="n">
-        <v>2395.726271498012</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>2251.634947019672</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218339</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121936</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2971.84874707406</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>2802.912564146153</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>2652.795924733818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>2504.882831151424</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>4435.456226844497</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U19" t="n">
-        <v>4146.381000188695</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V19" t="n">
-        <v>3891.696511982808</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>3602.279341945848</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>3374.28979104783</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>3153.4972119043</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2804.65264778894</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2635.716464861033</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2485.599825448698</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3207.09369176271</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>2986.30111261918</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945.402603663004</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>776.4664207350971</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>776.4664207350971</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,49 +6217,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703073</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6630,43 +6630,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2823.935653491667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2654.99947056376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2504.882831151424</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>2504.882831151424</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3998.467906606302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3743.783418400415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3454.366248363454</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3226.376697465437</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3005.584118321907</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3227.225672628157</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3058.28948970025</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2908.172850287915</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>2760.259756705521</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>2613.369809207611</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7499,13 +7499,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>167.2340587438922</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>30.95754073885482</v>
+        <v>38.89198472948124</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>46.45968844823031</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>3.116438016304642</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.43691740069059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>32.15184655856621</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>32.89260457059919</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907544</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26432,28 +26432,28 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346469</v>
+        <v>-976072.2357346468</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929455</v>
+        <v>352672.5099929456</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929456</v>
+        <v>352672.5099929457</v>
       </c>
       <c r="E6" t="n">
-        <v>102852.3231526118</v>
+        <v>102504.9438982544</v>
       </c>
       <c r="F6" t="n">
-        <v>428264.7849599678</v>
+        <v>427917.4057056101</v>
       </c>
       <c r="G6" t="n">
-        <v>428264.7849599673</v>
+        <v>427917.4057056102</v>
       </c>
       <c r="H6" t="n">
-        <v>428264.7849599668</v>
+        <v>427917.4057056103</v>
       </c>
       <c r="I6" t="n">
-        <v>428264.7849599672</v>
+        <v>427917.4057056105</v>
       </c>
       <c r="J6" t="n">
-        <v>210733.5825626896</v>
+        <v>210386.2033083331</v>
       </c>
       <c r="K6" t="n">
-        <v>428264.7849599668</v>
+        <v>427917.4057056104</v>
       </c>
       <c r="L6" t="n">
-        <v>428264.7849599671</v>
+        <v>427917.40570561</v>
       </c>
       <c r="M6" t="n">
-        <v>343209.7570244553</v>
+        <v>342862.3777700982</v>
       </c>
       <c r="N6" t="n">
-        <v>428264.7849599672</v>
+        <v>427917.4057056101</v>
       </c>
       <c r="O6" t="n">
-        <v>428264.7849599673</v>
+        <v>427917.40570561</v>
       </c>
       <c r="P6" t="n">
-        <v>428264.7849599668</v>
+        <v>427917.40570561</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>253.2509233122033</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>349.8910368433339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4663119704197</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>32.29208504611586</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>130.5482485912771</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>169.7162981627197</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.20425306019384</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>68.48118685729668</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
@@ -27912,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>126.1435732559715</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.4731593904576</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.302797828232</v>
       </c>
     </row>
     <row r="11">
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,37 +31594,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31633,7 +31633,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31682,16 +31682,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31700,19 +31700,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209183</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>669.466988500007</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
         <v>157.2826706286436</v>
@@ -35345,13 +35345,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410441</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36998,7 +36998,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010414</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>526.8707440555626</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>439.1903400640646</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1775878.666646624</v>
+        <v>1777639.196949409</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>157.6708023412502</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>24.14763241892771</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>186.2925683059789</v>
+        <v>37.67709528776619</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>164.0595157960434</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>249.5456553076224</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>43.98226791336641</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>226.1265775300238</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386283</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>14.73874327217528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>42.20606459030872</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5451136812779</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>178.513465597807</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>133.1319933510085</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>59.66990246485181</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>135.0949745400616</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>47.84205650381972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
-        <v>96.99837838564352</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>29.95900124023935</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2089.358425227295</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1720.395908286883</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1362.130209680133</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>976.3419570818885</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>565.356052292281</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267229</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2866.097597267229</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y2" t="n">
-        <v>2475.958265291417</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,13 +4427,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
         <v>2435.471302619336</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>551.0642295677644</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>382.1280466398575</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398575</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>732.7126943980041</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.338003964587</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C5" t="n">
-        <v>1844.338003964587</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D5" t="n">
-        <v>1486.072305357836</v>
+        <v>512.2748146547619</v>
       </c>
       <c r="E5" t="n">
-        <v>1100.284052759592</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>689.2981479699843</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>274.2256978149807</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4600,19 +4600,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2742.476615773052</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.5429342656</v>
+        <v>2389.707960502938</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.07717600452</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.937844028708</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="6">
@@ -4637,28 +4637,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955551</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C8" t="n">
-        <v>1865.035106955551</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D8" t="n">
-        <v>1506.7694083488</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="E8" t="n">
-        <v>1120.981155750556</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="F8" t="n">
-        <v>709.9952509609484</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>294.9228008059449</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265598</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995484</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995484</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019672</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4947,64 +4947,64 @@
         <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.955532171245</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.396576145015</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.6039970014847</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2083.791617318188</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1794.716390662386</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,10 +6077,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703073</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6630,43 +6630,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6788,10 +6788,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,16 +7019,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,16 +7074,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7268,13 +7268,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>415.5933575433587</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245692</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403282</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7812,46 +7812,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2416.701466165879</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2233.846631820783</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2014.245166843724</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
   </sheetData>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>210.9709121168619</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>176.3785887617861</v>
       </c>
     </row>
     <row r="14">
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13.28686650065944</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>38.89198472948124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>85.45266000108626</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>32.15184655856621</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>40.23897475306337</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.41624546988228</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="G2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="J2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907546</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>4.540033842204138e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26524,46 +26524,46 @@
         <v>-976072.2357346468</v>
       </c>
       <c r="C6" t="n">
+        <v>352672.5099929454</v>
+      </c>
+      <c r="D6" t="n">
         <v>352672.5099929456</v>
       </c>
-      <c r="D6" t="n">
-        <v>352672.5099929457</v>
-      </c>
       <c r="E6" t="n">
-        <v>102504.9438982544</v>
+        <v>102817.585227176</v>
       </c>
       <c r="F6" t="n">
-        <v>427917.4057056101</v>
+        <v>428230.0470345317</v>
       </c>
       <c r="G6" t="n">
-        <v>427917.4057056102</v>
+        <v>428230.0470345315</v>
       </c>
       <c r="H6" t="n">
-        <v>427917.4057056103</v>
+        <v>428230.0470345311</v>
       </c>
       <c r="I6" t="n">
-        <v>427917.4057056105</v>
+        <v>428230.0470345316</v>
       </c>
       <c r="J6" t="n">
-        <v>210386.2033083331</v>
+        <v>210698.8446372539</v>
       </c>
       <c r="K6" t="n">
-        <v>427917.4057056104</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="L6" t="n">
-        <v>427917.40570561</v>
+        <v>428230.0470345312</v>
       </c>
       <c r="M6" t="n">
-        <v>342862.3777700982</v>
+        <v>343175.0190990194</v>
       </c>
       <c r="N6" t="n">
-        <v>427917.4057056101</v>
+        <v>428230.0470345312</v>
       </c>
       <c r="O6" t="n">
-        <v>427917.40570561</v>
+        <v>428230.0470345315</v>
       </c>
       <c r="P6" t="n">
-        <v>427917.40570561</v>
+        <v>428230.0470345316</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>253.2509233122033</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>345.5834682595413</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.29208504611586</v>
+        <v>180.9075580643286</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>130.5482485912771</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>1.449516651279566</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>362.893777828345</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>68.48118685729668</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.302797828232</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,37 +31594,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31633,7 +31633,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31682,16 +31682,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31700,19 +31700,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34219,7 +34219,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>175.605272155109</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34532,31 +34532,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
         <v>0.1345549672467222</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
         <v>157.2826706286436</v>
@@ -35345,13 +35345,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010414</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318074997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
